--- a/questionaire.xlsx
+++ b/questionaire.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komatsubaramasato/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komatsubaramasato/python-projects/AIカリキュラム用データ/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030FDFE-C787-3848-ADC9-22D5978D9B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72051342-3433-CA48-BA44-E18ECE377853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,31 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="43">
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>conflict_school</t>
-  </si>
-  <si>
-    <t>interest_for_job_changing</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
   <si>
     <t>無回答</t>
   </si>
@@ -58,9 +34,6 @@
     <t>営業・販売</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
     <t>企画・マーケティング</t>
   </si>
   <si>
@@ -115,18 +88,12 @@
     <t>自営業</t>
   </si>
   <si>
-    <t>検討している</t>
-  </si>
-  <si>
     <t>今の仕事に活かしたい</t>
   </si>
   <si>
     <t>自分でサービスを開発できるようになりたい</t>
   </si>
   <si>
-    <t>検討していない</t>
-  </si>
-  <si>
     <t>副業、フリーランスで稼げるようになりたい</t>
   </si>
   <si>
@@ -136,9 +103,6 @@
     <t>教養としてテクノロジーを理解したい</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>管理職</t>
   </si>
   <si>
@@ -149,6 +113,69 @@
   </si>
   <si>
     <t>総務・人事</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答日</t>
+    <rPh sb="0" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>転職希望</t>
+    <rPh sb="0" eb="1">
+      <t>テンショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受講意思</t>
+    <rPh sb="0" eb="1">
+      <t>ジュコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>職業</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ナシ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面談希望</t>
+    <rPh sb="0" eb="2">
+      <t>メンダn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -164,11 +191,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -520,2430 +549,2154 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>13229</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>44197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>13278</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>44198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>13322</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>44200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>13362</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>44200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>13563</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>44200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>13568</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>44201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>13639</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>44206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>13722</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>44207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
         <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>13824</v>
       </c>
       <c r="B10" s="2">
         <v>44207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>13838</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>44208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
         <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>13872</v>
       </c>
       <c r="B12" s="2">
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>13913</v>
       </c>
       <c r="B13" s="2">
         <v>44213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>13923</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>44218</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>13927</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>44218</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>14010</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>44221</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>14016</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>44221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>14125</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>44222</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>14138</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>44222</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>14167</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>44223</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
         <v>20</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
-        <v>14201</v>
       </c>
       <c r="B21" s="2">
         <v>44224</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>14314</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>44224</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>14350</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>44225</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>14351</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>44225</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>14500</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>44226</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>14549</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>44227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>14551</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>44227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>14627</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>44227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>14684</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>44228</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
         <v>29</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="1">
-        <v>14715</v>
       </c>
       <c r="B30" s="2">
         <v>44230</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>14734</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>44230</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>14773</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>14839</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>44231</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>14951</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>44233</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>14959</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>44233</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>15014</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>44235</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>15138</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>44235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>15508</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>44236</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>15509</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>44236</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>15589</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>44236</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>15598</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>44239</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>15841</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>44240</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>15882</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>44240</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>15984</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>16042</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>44243</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>16144</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>44243</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>16331</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>44246</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>16789</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>44246</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>16815</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>44247</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>16875</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>44248</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>16902</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>44249</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>16921</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>44249</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>16979</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>44249</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>17071</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>44253</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>17116</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>44253</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>17213</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>44253</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>17225</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>44255</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="1">
-        <v>17241</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>44256</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="1">
-        <v>17314</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="1">
-        <v>17362</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>44258</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" s="1">
-        <v>17424</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" s="1">
-        <v>17556</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>44259</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="1">
-        <v>17579</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>44259</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="1">
-        <v>17605</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>44259</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" s="1">
-        <v>17647</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>44261</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15">
       <c r="A66" s="1">
-        <v>17743</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>44264</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15">
       <c r="A67" s="1">
-        <v>17895</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>44265</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15">
       <c r="A68" s="1">
-        <v>18030</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>44265</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15">
       <c r="A69" s="1">
-        <v>18060</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>44267</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15">
       <c r="A70" s="1">
-        <v>18066</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>44267</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15">
       <c r="A71" s="1">
-        <v>18141</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>44268</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="1">
-        <v>18159</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>44268</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
       <c r="A73" s="1">
-        <v>18180</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>44268</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15">
       <c r="A74" s="1">
-        <v>18206</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>44273</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15">
       <c r="A75" s="1">
-        <v>18231</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>44274</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15">
       <c r="A76" s="1">
-        <v>18266</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>44274</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15">
       <c r="A77" s="1">
-        <v>18305</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>44274</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15">
       <c r="A78" s="1">
-        <v>18310</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>44275</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15">
       <c r="A79" s="1">
-        <v>18356</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>44276</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="1">
-        <v>18447</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>44276</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15">
       <c r="A81" s="1">
-        <v>18507</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>44277</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" s="1">
-        <v>18515</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>44277</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" s="1">
-        <v>18516</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>44277</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15">
       <c r="A84" s="1">
-        <v>18560</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>44278</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="1">
-        <v>18587</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>44280</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="1">
-        <v>18614</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>44280</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" s="1">
-        <v>18658</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>44281</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" s="1">
-        <v>18666</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>44281</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" s="1">
-        <v>18679</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>44282</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" s="1">
-        <v>18688</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>44284</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" s="1">
-        <v>18744</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>44284</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="1">
-        <v>18765</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>44285</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15">
       <c r="A93" s="1">
-        <v>18774</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>44286</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/questionaire.xlsx
+++ b/questionaire.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komatsubaramasato/python-projects/AIカリキュラム用データ/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72051342-3433-CA48-BA44-E18ECE377853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65E9B0-50DF-2140-835A-3BD9AB2C8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questionaire" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questionaire!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="40">
   <si>
     <t>無回答</t>
   </si>
@@ -552,7 +555,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -617,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -663,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -686,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -709,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
@@ -732,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -755,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -778,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -801,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>5</v>
@@ -824,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -847,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
@@ -870,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -893,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -912,11 +915,9 @@
       <c r="B16" s="2">
         <v>44221</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -939,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
@@ -962,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -985,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
@@ -1008,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
@@ -1031,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
@@ -1054,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
@@ -1077,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -1100,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>2</v>
@@ -1123,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -1146,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
@@ -1169,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>2</v>
@@ -1191,9 +1192,7 @@
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
@@ -1238,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>2</v>
@@ -1261,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>2</v>
@@ -1284,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -1307,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>2</v>
@@ -1330,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>2</v>
@@ -1353,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -1376,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>2</v>
@@ -1399,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>2</v>
@@ -1422,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
@@ -1445,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -1468,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>2</v>
@@ -1491,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>5</v>
@@ -1514,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -1537,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -1560,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
@@ -1583,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
@@ -1606,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>2</v>
@@ -1629,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
@@ -1649,10 +1648,10 @@
         <v>44246</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -1672,7 +1671,7 @@
         <v>44247</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>23</v>
@@ -1694,9 +1693,7 @@
       <c r="B50" s="2">
         <v>44248</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>44249</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>23</v>
@@ -1741,7 +1738,7 @@
         <v>44249</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>26</v>
@@ -1764,10 +1761,10 @@
         <v>44249</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>15</v>
@@ -1787,10 +1784,10 @@
         <v>44253</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -1810,10 +1807,10 @@
         <v>44253</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
@@ -1833,10 +1830,10 @@
         <v>44253</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>15</v>
@@ -1856,10 +1853,10 @@
         <v>44255</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
@@ -1879,10 +1876,10 @@
         <v>44256</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
@@ -1905,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
@@ -1997,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -2020,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>5</v>
@@ -2112,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>25</v>
@@ -2700,6 +2697,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
